--- a/import_template/guidelines/Import Withholding Tax Guideline.xlsx
+++ b/import_template/guidelines/Import Withholding Tax Guideline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Worknest\import_template\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF893B08-4041-47DA-A665-DD9869D58B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C84DD-68E0-477A-8661-EFD3B338C7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Import Guideline" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Column</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>SALARY_FREQUENCY</t>
-  </si>
-  <si>
-    <t>ADDITIONAL_RATE</t>
   </si>
   <si>
     <t>Database ID of the withholding tax d for updating.</t>
@@ -100,7 +97,22 @@
     <t>MONTHLY</t>
   </si>
   <si>
-    <t>The additional rate in percentage based on the withholding tax table.</t>
+    <t>PERCENT_OVER</t>
+  </si>
+  <si>
+    <t>The percentage over based on the withholding tax table.</t>
+  </si>
+  <si>
+    <t>FIX_COMPENSATION_LEVEL</t>
+  </si>
+  <si>
+    <t>The fix compensation level based on withholding tax table.</t>
+  </si>
+  <si>
+    <t>BASE_TAX</t>
+  </si>
+  <si>
+    <t>The base tax based on withholding tax table.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D86087-82FB-46F5-B0C7-F4F9CF2E2675}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -563,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,18 +615,52 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -625,10 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052B8E4-2C96-4091-903E-43F5A3C15A8A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,9 +685,11 @@
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -654,15 +703,21 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -671,6 +726,12 @@
         <v>1000</v>
       </c>
       <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="10">
         <v>12</v>
       </c>
     </row>
